--- a/published-data/fonds-solidarite/fds-2021-04-18/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-04-18/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -2898,13 +2898,13 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="D50">
         <v>555</v>
       </c>
       <c r="E50">
-        <v>7338530</v>
+        <v>7336730</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -5838,13 +5838,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>11264</v>
+        <v>11265</v>
       </c>
       <c r="D134">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E134">
-        <v>30753008</v>
+        <v>30754808</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
